--- a/biology/Médecine/Henri_Redon/Henri_Redon.xlsx
+++ b/biology/Médecine/Henri_Redon/Henri_Redon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Henri Redon, né le 24 juin 1899 à Saint-Cirq-Lapopie et mort le 1er juin 1974 à Tour-de-Faure (Lot)[1], est une personnalité médicale et un grand chirurgien.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Henri Redon, né le 24 juin 1899 à Saint-Cirq-Lapopie et mort le 1er juin 1974 à Tour-de-Faure (Lot), est une personnalité médicale et un grand chirurgien.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ancien  élève du lycée Gambetta de Cahors, il a fait ses études de médecine à Toulouse puis à Paris où il a mené une brillante carrière de chirurgien.
 Le 12 novembre 1957, il est nommé titulaire de la chaire de clinique chirurgicale de cancérologie à la Faculté de médecine de Paris. Il fut membre de l'Académie nationale de médecine et de l'Académie nationale de chirurgie.
